--- a/data/trans_orig/P57B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D85872D-D4DF-463E-81F2-8B4E6A7F199E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{069EE9A4-51F5-433A-8D60-2199DA30AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48070A1B-8BFD-4B96-852C-5CF47869053F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E78F79E-2FD0-497F-A02D-73281E673CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población con bienestar emocional por debajo del percentil 15 (Bericat) en 2023 (Tasa respuesta: 98,25%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>23,03%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>30,42%</t>
   </si>
   <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>76,97%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
   </si>
   <si>
     <t>69,58%</t>
   </si>
   <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
   </si>
   <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>8,72%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>11,9%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>91,28%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>88,1%</t>
   </si>
   <si>
     <t>90,33%</t>
   </si>
   <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,10 +188,10 @@
     <t>6,32%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>8,92%</t>
@@ -206,31 +200,31 @@
     <t>7,15%</t>
   </si>
   <si>
-    <t>11,03%</t>
+    <t>11,11%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>91,08%</t>
   </si>
   <si>
-    <t>88,97%</t>
+    <t>88,89%</t>
   </si>
   <si>
     <t>92,85%</t>
@@ -239,64 +233,64 @@
     <t>92,34%</t>
   </si>
   <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>85,47%</t>
   </si>
   <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDAC437-0C1C-40D5-B366-664655D2CD42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511DD6B4-1383-4577-AE6F-FC98AB54B08B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1008,10 +1002,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>593</v>
@@ -1020,13 +1014,13 @@
         <v>421627</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1041,13 +1035,13 @@
         <v>1949915</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2506</v>
@@ -1056,13 +1050,13 @@
         <v>1989267</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
         <v>4261</v>
@@ -1071,13 +1065,13 @@
         <v>3939183</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1133,7 +1127,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1145,13 +1139,13 @@
         <v>42277</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -1160,13 +1154,13 @@
         <v>63363</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -1175,13 +1169,13 @@
         <v>105639</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1190,13 @@
         <v>626466</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>908</v>
@@ -1211,13 +1205,13 @@
         <v>646725</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1540</v>
@@ -1226,13 +1220,13 @@
         <v>1273192</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,13 +1294,13 @@
         <v>349872</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>907</v>
@@ -1315,13 +1309,13 @@
         <v>543159</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1331</v>
@@ -1330,13 +1324,13 @@
         <v>893032</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,13 +1345,13 @@
         <v>2981660</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4343</v>
@@ -1366,13 +1360,13 @@
         <v>3195093</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>7238</v>
@@ -1381,13 +1375,13 @@
         <v>6176752</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{069EE9A4-51F5-433A-8D60-2199DA30AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0432D5B1-0255-4F75-AA3F-1E9D1B05F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E78F79E-2FD0-497F-A02D-73281E673CEF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBD1713D-5069-4B7F-B142-AACE5BE4D872}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511DD6B4-1383-4577-AE6F-FC98AB54B08B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC27B1CC-9AD3-48D5-9673-DD1FCFDC242F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0432D5B1-0255-4F75-AA3F-1E9D1B05F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B5397B-AD27-4EB1-87A2-5912AF13E97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBD1713D-5069-4B7F-B142-AACE5BE4D872}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B40E098-6C48-4F15-B091-80A4A3A43BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población con bienestar emocional por debajo del percentil 15 (Bericat) en 2023 (Tasa respuesta: 98,25%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>23,03%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
   </si>
   <si>
     <t>30,42%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>76,97%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>69,58%</t>
   </si>
   <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
   </si>
   <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,49 +137,55 @@
     <t>8,72%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>11,9%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>91,28%</t>
   </si>
   <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>88,1%</t>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>90,33%</t>
   </si>
   <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,10 +194,10 @@
     <t>6,32%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>8,92%</t>
@@ -200,31 +206,31 @@
     <t>7,15%</t>
   </si>
   <si>
-    <t>11,11%</t>
+    <t>11,03%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>91,08%</t>
   </si>
   <si>
-    <t>88,89%</t>
+    <t>88,97%</t>
   </si>
   <si>
     <t>92,85%</t>
@@ -233,64 +239,64 @@
     <t>92,34%</t>
   </si>
   <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>85,47%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC27B1CC-9AD3-48D5-9673-DD1FCFDC242F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E904B2-1B18-427E-A5A0-24713F882A06}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1002,10 +1008,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>593</v>
@@ -1014,13 +1020,13 @@
         <v>421627</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,13 +1041,13 @@
         <v>1949915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2506</v>
@@ -1050,13 +1056,13 @@
         <v>1989267</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>4261</v>
@@ -1065,13 +1071,13 @@
         <v>3939183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1127,7 +1133,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1139,13 +1145,13 @@
         <v>42277</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -1154,13 +1160,13 @@
         <v>63363</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -1169,13 +1175,13 @@
         <v>105639</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1196,13 @@
         <v>626466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>908</v>
@@ -1205,13 +1211,13 @@
         <v>646725</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1540</v>
@@ -1220,13 +1226,13 @@
         <v>1273192</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1300,13 @@
         <v>349872</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>907</v>
@@ -1309,13 +1315,13 @@
         <v>543159</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1331</v>
@@ -1324,13 +1330,13 @@
         <v>893032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,13 +1351,13 @@
         <v>2981660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4343</v>
@@ -1360,13 +1366,13 @@
         <v>3195093</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>7238</v>
@@ -1375,13 +1381,13 @@
         <v>6176752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B5397B-AD27-4EB1-87A2-5912AF13E97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC038CC5-4DEC-42A7-84E3-03FA24B4FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B40E098-6C48-4F15-B091-80A4A3A43BB2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1259DD9A-9170-4B8B-8026-558374E86680}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E904B2-1B18-427E-A5A0-24713F882A06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D70F675-D1E3-4D11-95CA-FED06857DFB4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>164</v>
       </c>
       <c r="D4" s="7">
-        <v>121277</v>
+        <v>111707</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>438</v>
       </c>
       <c r="I4" s="7">
-        <v>244488</v>
+        <v>217768</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>602</v>
       </c>
       <c r="N4" s="7">
-        <v>365765</v>
+        <v>329475</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>508</v>
       </c>
       <c r="D5" s="7">
-        <v>405277</v>
+        <v>389104</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>929</v>
       </c>
       <c r="I5" s="7">
-        <v>559102</v>
+        <v>508096</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>1437</v>
       </c>
       <c r="N5" s="7">
-        <v>964379</v>
+        <v>897199</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>672</v>
       </c>
       <c r="D6" s="7">
-        <v>526554</v>
+        <v>500811</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1367</v>
       </c>
       <c r="I6" s="7">
-        <v>803590</v>
+        <v>725864</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>2039</v>
       </c>
       <c r="N6" s="7">
-        <v>1330144</v>
+        <v>1226674</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>215</v>
       </c>
       <c r="D7" s="7">
-        <v>186319</v>
+        <v>170209</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>378</v>
       </c>
       <c r="I7" s="7">
-        <v>235308</v>
+        <v>211102</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>593</v>
       </c>
       <c r="N7" s="7">
-        <v>421627</v>
+        <v>381311</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>1755</v>
       </c>
       <c r="D8" s="7">
-        <v>1949915</v>
+        <v>2095027</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>2506</v>
       </c>
       <c r="I8" s="7">
-        <v>1989267</v>
+        <v>2003612</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>4261</v>
       </c>
       <c r="N8" s="7">
-        <v>3939183</v>
+        <v>4098639</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1970</v>
       </c>
       <c r="D9" s="7">
-        <v>2136234</v>
+        <v>2265236</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2884</v>
       </c>
       <c r="I9" s="7">
-        <v>2224575</v>
+        <v>2214714</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4854</v>
       </c>
       <c r="N9" s="7">
-        <v>4360810</v>
+        <v>4479950</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>42277</v>
+        <v>40527</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>63363</v>
+        <v>57520</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>136</v>
       </c>
       <c r="N10" s="7">
-        <v>105639</v>
+        <v>98047</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>632</v>
       </c>
       <c r="D11" s="7">
-        <v>626466</v>
+        <v>602050</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>646725</v>
+        <v>599366</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>1540</v>
       </c>
       <c r="N11" s="7">
-        <v>1273192</v>
+        <v>1201417</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>677</v>
       </c>
       <c r="D12" s="7">
-        <v>668743</v>
+        <v>642577</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>999</v>
       </c>
       <c r="I12" s="7">
-        <v>710088</v>
+        <v>656886</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1676</v>
       </c>
       <c r="N12" s="7">
-        <v>1378831</v>
+        <v>1299464</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>424</v>
       </c>
       <c r="D13" s="7">
-        <v>349872</v>
+        <v>322443</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>907</v>
       </c>
       <c r="I13" s="7">
-        <v>543159</v>
+        <v>486390</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>1331</v>
       </c>
       <c r="N13" s="7">
-        <v>893032</v>
+        <v>808833</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>2895</v>
       </c>
       <c r="D14" s="7">
-        <v>2981660</v>
+        <v>3086182</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>4343</v>
       </c>
       <c r="I14" s="7">
-        <v>3195093</v>
+        <v>3111073</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>7238</v>
       </c>
       <c r="N14" s="7">
-        <v>6176752</v>
+        <v>6197255</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3319</v>
       </c>
       <c r="D15" s="7">
-        <v>3331532</v>
+        <v>3408625</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5250</v>
       </c>
       <c r="I15" s="7">
-        <v>3738252</v>
+        <v>3597463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8569</v>
       </c>
       <c r="N15" s="7">
-        <v>7069784</v>
+        <v>7006088</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
